--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H2">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>465.6534118035023</v>
+        <v>626.335246805685</v>
       </c>
       <c r="R2">
-        <v>4190.88070623152</v>
+        <v>5637.017221251164</v>
       </c>
       <c r="S2">
-        <v>0.05044984765439051</v>
+        <v>0.05739612962848428</v>
       </c>
       <c r="T2">
-        <v>0.0504498476543905</v>
+        <v>0.05739612962848427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H3">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>449.4511343513773</v>
+        <v>534.5903603478947</v>
       </c>
       <c r="R3">
-        <v>4045.060209162396</v>
+        <v>4811.313243131051</v>
       </c>
       <c r="S3">
-        <v>0.04869445961600372</v>
+        <v>0.04898880875242383</v>
       </c>
       <c r="T3">
-        <v>0.04869445961600371</v>
+        <v>0.04898880875242383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H4">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>90.95794656348265</v>
+        <v>159.2645626476209</v>
       </c>
       <c r="R4">
-        <v>818.6215190713439</v>
+        <v>1433.381063828588</v>
       </c>
       <c r="S4">
-        <v>0.009854570869160289</v>
+        <v>0.01459469114913578</v>
       </c>
       <c r="T4">
-        <v>0.009854570869160287</v>
+        <v>0.01459469114913577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H5">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>287.734757547768</v>
+        <v>317.4460562397755</v>
       </c>
       <c r="R5">
-        <v>2589.612817929913</v>
+        <v>2857.01450615798</v>
       </c>
       <c r="S5">
-        <v>0.03117377499057919</v>
+        <v>0.02909013198109529</v>
       </c>
       <c r="T5">
-        <v>0.03117377499057918</v>
+        <v>0.02909013198109529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>1030.877619003275</v>
+        <v>1165.769077370395</v>
       </c>
       <c r="R6">
-        <v>9277.89857102948</v>
+        <v>10491.92169633355</v>
       </c>
       <c r="S6">
-        <v>0.1116873999217736</v>
+        <v>0.1068287844614757</v>
       </c>
       <c r="T6">
-        <v>0.1116873999217735</v>
+        <v>0.1068287844614757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>995.0085267151143</v>
@@ -883,10 +883,10 @@
         <v>8955.076740436029</v>
       </c>
       <c r="S7">
-        <v>0.107801268744445</v>
+        <v>0.09118062359103611</v>
       </c>
       <c r="T7">
-        <v>0.107801268744445</v>
+        <v>0.0911806235910361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>201.3654555211506</v>
+        <v>296.4318281661667</v>
       </c>
       <c r="R8">
-        <v>1812.289099690356</v>
+        <v>2667.886453495501</v>
       </c>
       <c r="S8">
-        <v>0.02181634730121093</v>
+        <v>0.02716442946841269</v>
       </c>
       <c r="T8">
-        <v>0.02181634730121092</v>
+        <v>0.02716442946841268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>636.9959163758821</v>
+        <v>590.847789558176</v>
       </c>
       <c r="R9">
-        <v>5732.963247382938</v>
+        <v>5317.630106023585</v>
       </c>
       <c r="S9">
-        <v>0.06901344674608142</v>
+        <v>0.05414412887209826</v>
       </c>
       <c r="T9">
-        <v>0.06901344674608141</v>
+        <v>0.05414412887209825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H10">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>272.0567061715689</v>
+        <v>441.7810535483918</v>
       </c>
       <c r="R10">
-        <v>2448.51035554412</v>
+        <v>3976.029481935526</v>
       </c>
       <c r="S10">
-        <v>0.02947518268265742</v>
+        <v>0.04048394649062196</v>
       </c>
       <c r="T10">
-        <v>0.02947518268265741</v>
+        <v>0.04048394649062196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H11">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>262.5905707919723</v>
+        <v>377.0694589132353</v>
       </c>
       <c r="R11">
-        <v>2363.315137127751</v>
+        <v>3393.625130219118</v>
       </c>
       <c r="S11">
-        <v>0.02844960212065349</v>
+        <v>0.03455390328598387</v>
       </c>
       <c r="T11">
-        <v>0.02844960212065348</v>
+        <v>0.03455390328598387</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H12">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>53.14192640906266</v>
+        <v>112.3361117520158</v>
       </c>
       <c r="R12">
-        <v>478.2773376815639</v>
+        <v>1011.025005768142</v>
       </c>
       <c r="S12">
-        <v>0.005757505525438693</v>
+        <v>0.01029426024634843</v>
       </c>
       <c r="T12">
-        <v>0.005757505525438691</v>
+        <v>0.01029426024634843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H13">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>168.108229007358</v>
+        <v>223.9082885493411</v>
       </c>
       <c r="R13">
-        <v>1512.974061066222</v>
+        <v>2015.17459694407</v>
       </c>
       <c r="S13">
-        <v>0.01821319102983284</v>
+        <v>0.02051851499658153</v>
       </c>
       <c r="T13">
-        <v>0.01821319102983283</v>
+        <v>0.02051851499658153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H14">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I14">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J14">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>1553.411250735742</v>
+        <v>1939.741877351789</v>
       </c>
       <c r="R14">
-        <v>13980.70125662168</v>
+        <v>17457.6768961661</v>
       </c>
       <c r="S14">
-        <v>0.1682997675045597</v>
+        <v>0.1777541289686081</v>
       </c>
       <c r="T14">
-        <v>0.1682997675045596</v>
+        <v>0.1777541289686082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H15">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I15">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J15">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>1499.360749990579</v>
+        <v>1655.610656567608</v>
       </c>
       <c r="R15">
-        <v>13494.24674991521</v>
+        <v>14900.49590910847</v>
       </c>
       <c r="S15">
-        <v>0.1624438251682289</v>
+        <v>0.1517169029577785</v>
       </c>
       <c r="T15">
-        <v>0.1624438251682289</v>
+        <v>0.1517169029577785</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H16">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I16">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J16">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>303.4340433334106</v>
+        <v>493.2376763422852</v>
       </c>
       <c r="R16">
-        <v>2730.906390000695</v>
+        <v>4439.139087080567</v>
       </c>
       <c r="S16">
-        <v>0.03287466787806141</v>
+        <v>0.04519933015645387</v>
       </c>
       <c r="T16">
-        <v>0.0328746678780614</v>
+        <v>0.04519933015645387</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H17">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I17">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J17">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>959.8778797116122</v>
+        <v>983.1211196062532</v>
       </c>
       <c r="R17">
-        <v>8638.90091740451</v>
+        <v>8848.090076456279</v>
       </c>
       <c r="S17">
-        <v>0.103995142246923</v>
+        <v>0.09009128499346164</v>
       </c>
       <c r="T17">
-        <v>0.1039951422469229</v>
+        <v>0.09009128499346165</v>
       </c>
     </row>
   </sheetData>
